--- a/salesforce_user_accounts_feed2.xlsx
+++ b/salesforce_user_accounts_feed2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DharaniModeboiena\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255123DE-0DE6-43FA-A611-4E2D310D4E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04137CC0-43C0-4652-A273-1453718E1D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>First name</t>
   </si>
@@ -88,13 +88,19 @@
   </si>
   <si>
     <t>Identity</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Identity User</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +115,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -153,7 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -161,6 +173,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -443,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
@@ -459,7 +474,7 @@
     <col min="6" max="6" width="37.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,8 +493,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -498,8 +516,11 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -515,8 +536,11 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="15" thickBot="1">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -534,6 +558,9 @@
       </c>
       <c r="F4" t="s">
         <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
